--- a/medicine/Enfance/Yann_Fastier/Yann_Fastier.xlsx
+++ b/medicine/Enfance/Yann_Fastier/Yann_Fastier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yann Fastier, né le 23 mars 1965[1] à Saint-Jean-d'Angély en Charente-Maritime, est un auteur - illustrateur d'ouvrages jeunesse et bibliothécaire jeunesse[2] français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yann Fastier, né le 23 mars 1965 à Saint-Jean-d'Angély en Charente-Maritime, est un auteur - illustrateur d'ouvrages jeunesse et bibliothécaire jeunesse français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yann Fastier a suivi des études à l’École des Arts décoratifs de Limoges, ville où il réside[3].
-Il a publié de nombreux albums jeunesse aux éditions L'Atelier du poisson soluble[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yann Fastier a suivi des études à l’École des Arts décoratifs de Limoges, ville où il réside.
+Il a publié de nombreux albums jeunesse aux éditions L'Atelier du poisson soluble.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Yann Fastier, Gamelle, Genève, Suisse, Éditions Paquet, 1999, 48 p. (ISBN 978-2940199105)
 Yann Fastier, Rapport secret sur les dents de lait, Le-Puy-en-Velay, France, L'Atelier du poisson soluble, 1999, 32 p. (ISBN 978-2950456892)
